--- a/machine_template/machine_infos_tmp.xlsx
+++ b/machine_template/machine_infos_tmp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="machine_infos" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>设备ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>资产编号</t>
+  </si>
+  <si>
+    <t>业务系统</t>
   </si>
   <si>
     <t>模块设备1</t>
@@ -158,7 +161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -647,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,34 +667,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,98 +703,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +808,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7777777777778" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1141,7 +1155,7 @@
     <col min="13" max="14" width="9.66666666666667" customWidth="1"/>
     <col min="15" max="16" width="11.8888888888889" customWidth="1"/>
     <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="7.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
     <col min="19" max="19" width="11.8888888888889" customWidth="1"/>
     <col min="20" max="21" width="9.66666666666667" customWidth="1"/>
     <col min="22" max="22" width="7.66666666666667" customWidth="1"/>
@@ -1149,7 +1163,7 @@
     <col min="24" max="16384" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,31 +1236,34 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -1269,10 +1286,10 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1282,6 +1299,7 @@
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
+      <c r="Y2" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
